--- a/static/questions/writing.xlsx
+++ b/static/questions/writing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI LAPTOP\Downloads\test4v32\test4v3\static\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C5F72D-8E05-4823-8357-975D43C76A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD7A831-4B09-4AC8-89EE-7ABDA2FCBF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C4550543-D1A3-4F9D-B929-2AC6F746262A}"/>
+    <workbookView xWindow="5970" yWindow="3310" windowWidth="19200" windowHeight="9970" xr2:uid="{C4550543-D1A3-4F9D-B929-2AC6F746262A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>question</t>
   </si>
@@ -85,6 +85,231 @@
   </si>
   <si>
     <t>Write about the following topic. Give your reasons and include relevant examples from your own knowledge or experience. The first car appeared on British roads in 1888. By the year 2000 there may be as many as 29 million vehicles on British roads. Alternative forms of transport should be encouraged and international laws introduced to control car ownership and use. To what extent do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people believe that children should be taught financial management in school. To what extent do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some believe that advertisements targeting children should be banned. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Many parents believe that schools should focus on teaching core subjects instead of extracurricular activities. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people argue that it is more beneficial to learn a foreign language in childhood than in adulthood. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some believe that public libraries are no longer necessary in the digital age. To what extent do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people think that modern technology is making people less social. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Many people believe that online education will replace traditional classroom teaching in the future. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some argue that the government should provide free healthcare for all citizens. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some believe that learning practical skills is more important than studying academic subjects in school. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Many people think that zoos are cruel and should be closed. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people argue that employers should focus on skills rather than qualifications when hiring. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some believe that university education should be free for everyone. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Many argue that celebrities are overpaid compared to other professions. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people think that sports stars make too much money. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some believe that people should be encouraged to work beyond the age of retirement. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Many people think that individuals should pay a tax for environmental pollution they cause. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some argue that a four-day work week would improve productivity and work-life balance. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Many believe that parents should limit their children’s screen time to improve their health. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people think that teachers should be replaced by artificial intelligence in the future. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Many argue that studying abroad offers more benefits than studying in one's home country. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some believe that history is one of the most important subjects taught in school. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some argue that unpaid community service should be a mandatory part of high school programs. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Many people believe that strict punishments reduce crime rates. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some think that advertising manipulates people into buying unnecessary products. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some argue that owning a car is no longer a necessity in today’s world. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people believe that the government should spend money on public services rather than arts. To what extent do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>In many countries, people are choosing to live alone. What are the reasons for this trend and what are the effects on society?</t>
+  </si>
+  <si>
+    <t>Some people think that studying history is a waste of time, while others believe it is essential for understanding the present. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Many people think that social media has a negative impact on society. To what extent do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people believe that the internet is a great educational tool, while others think it can be distracting. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>In some countries, the elderly are given the responsibility of looking after their grandchildren. Do you think this is a good or bad development?</t>
+  </si>
+  <si>
+    <t>Some people think that modern technology is making people less social, while others believe it helps people communicate more easily. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Many people believe that the government should be responsible for providing healthcare, while others believe it should be the individual's responsibility. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people think that a person's success is determined by their education, while others think that personal qualities are more important. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>In some countries, the gap between the rich and the poor is widening. What are the causes of this and what can be done to reduce the gap?</t>
+  </si>
+  <si>
+    <t>Some people think that children should be taught how to cook at school, while others believe that schools should focus on academic subjects. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>In some countries, people have become more health-conscious and are exercising more. What are the reasons for this and how can it benefit society?</t>
+  </si>
+  <si>
+    <t>Some people believe that mobile phones are making us more isolated, while others think they bring people closer together. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people argue that students should be taught to develop their creativity, while others believe that academic subjects should be given more importance. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>In many cities, there is an increase in the use of private cars. What are the reasons for this and what can be done to reduce the number of private cars on the road?</t>
+  </si>
+  <si>
+    <t>Some people think that having a job for life is better, while others believe that changing jobs regularly brings more benefits. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people believe that children should learn to read and write before starting school, while others think this is unnecessary. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Many people today have access to the internet, which allows them to read news and articles. Do you think this has changed the way we read and access information? Discuss the impact of this.</t>
+  </si>
+  <si>
+    <t>Some people believe that the government should invest more in public transport, while others believe that private cars should be the priority. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>In some countries, the crime rate is increasing. What are the causes of this and what measures can be taken to prevent crime?</t>
+  </si>
+  <si>
+    <t>Some people think that parents should be held responsible for their children's behavior, while others think that the children themselves should be held accountable. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people think that the media should not show violent images and news, while others believe that this is a necessary part of informing the public. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Many people believe that online education is a good alternative to traditional classroom learning. Discuss the advantages and disadvantages of online education.</t>
+  </si>
+  <si>
+    <t>In many countries, the population is aging. What are the challenges of an aging population and what can be done to address these challenges?</t>
+  </si>
+  <si>
+    <t>Some people believe that living in a big city is better, while others think that living in a rural area has more advantages. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people think that children should be taught to respect the environment from an early age. Do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Many people argue that a university education is essential for success, while others believe it is not necessary. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people believe that the government should control the amount of junk food available in the market. To what extent do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people think that having a variety of restaurants in a city is a good thing, while others believe that it leads to negative effects. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>In some countries, the number of people who are overweight is increasing. What are the causes of this and what can be done to tackle the problem?</t>
+  </si>
+  <si>
+    <t>Some people believe that the main purpose of education is to prepare individuals for the workforce. Others believe that it should provide a broader education. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>In many countries, children’s behavior is a concern for many people. What are the causes of this problem and what can be done to improve it?</t>
+  </si>
+  <si>
+    <t>Some people argue that tourism is the main cause of cultural and environmental damage. To what extent do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people think that it is better for children to grow up in the countryside, while others believe that cities provide better opportunities. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people argue that international sporting events, such as the Olympics, are a waste of money. To what extent do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people believe that technology has made communication easier, while others think it has led to more isolation. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people think that the internet has improved the quality of life, while others believe it has made life more stressful. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people believe that living in a multicultural society is beneficial, while others think it brings challenges. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>In some countries, it is common for people to own their homes, while in others renting is more common. Discuss the advantages and disadvantages of both options.</t>
+  </si>
+  <si>
+    <t>Some people think that the government should do more to preserve historic buildings, while others believe that it is more important to develop new infrastructure. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>In many countries, people are becoming more dependent on technology. Do you think this is a positive or negative development?</t>
+  </si>
+  <si>
+    <t>Some people think that working from home is beneficial, while others believe it creates problems for work-life balance. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Many people believe that art and music should be part of the school curriculum. Discuss the importance of art and music education.</t>
+  </si>
+  <si>
+    <t>Some people think that people should be allowed to work at any age, while others believe there should be a retirement age. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>In some countries, it is common for people to buy new products rather than repair old ones. What are the causes of this trend and how can it be addressed?</t>
+  </si>
+  <si>
+    <t>Some people think that governments should spend more money on space exploration, while others believe that money should be spent on more urgent issues. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people think that watching movies at home is better than going to the cinema. To what extent do you agree or disagree?</t>
+  </si>
+  <si>
+    <t>Some people think that it is important for countries to preserve their traditional culture, while others believe that cultures should evolve and adapt. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people believe that advertising has a negative effect on society, while others think it is beneficial. Discuss both views and give your own opinion.</t>
+  </si>
+  <si>
+    <t>Some people think that physical fitness is essential for a good lifestyle, while others believe that mental fitness is more important. Discuss both views and give your own opinion.</t>
   </si>
 </sst>
 </file>
@@ -437,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4502A9-EAD9-440B-9D10-BE35743FC50A}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,6 +755,381 @@
         <v>13</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
